--- a/LS_2019_2020/ZPS/cvicenia/cv07.xlsx
+++ b/LS_2019_2020/ZPS/cvicenia/cv07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FIIT\LS_2019_2020\ZPS\cvicenia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB0032-A8B6-4DF8-B405-49C347975817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58AD861-C793-4F53-9F5D-6AF7F5CA0E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-4470" windowWidth="38620" windowHeight="21360" xr2:uid="{1FF25166-EB67-4535-99BC-A296F7F6217B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{1FF25166-EB67-4535-99BC-A296F7F6217B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Základné serverové nastavenia 2</t>
   </si>
@@ -125,13 +125,64 @@
   </si>
   <si>
     <t>to iste s ostatnymi</t>
+  </si>
+  <si>
+    <t>zapnúť alebo vypnúť súčasti systému Windows</t>
+  </si>
+  <si>
+    <t>odkliknúť FTP server, Web management tools a internet information service hostable web core</t>
+  </si>
+  <si>
+    <t>reštart</t>
+  </si>
+  <si>
+    <t>ovládací panel --&gt; nástroje na správu --&gt; internet information services</t>
+  </si>
+  <si>
+    <t>connections --&gt;  DESKTOP --&gt; sites --&gt; add new FTP</t>
+  </si>
+  <si>
+    <t>FTP WINDOWS</t>
+  </si>
+  <si>
+    <t>ovládací panel --&gt; windows defender firewall</t>
+  </si>
+  <si>
+    <t>rozšírené nastavenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inbound rules --&gt; new --&gt; custom rule </t>
+  </si>
+  <si>
+    <t>(zakázať) all programs, protocol type - any --&gt; block the connection</t>
+  </si>
+  <si>
+    <t>(povoliť port 80) all programs --&gt;</t>
+  </si>
+  <si>
+    <t>allow the connection</t>
+  </si>
+  <si>
+    <t>rovnako port 20.21</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>outbound rules --&gt;</t>
+  </si>
+  <si>
+    <t>rovnako aj yahoo atd..</t>
+  </si>
+  <si>
+    <t>FIREWALL WINDOWS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +229,16 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +257,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -223,32 +294,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -257,11 +302,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -272,15 +326,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,12 +338,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,6 +346,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -344,7 +413,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1471307</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>110048</xdr:rowOff>
+      <xdr:rowOff>110047</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -387,8 +456,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1481987</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>179964</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>45</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -413,6 +482,92 @@
         <a:xfrm>
           <a:off x="679450" y="11341100"/>
           <a:ext cx="4422037" cy="4758314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>255094</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275160</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>148444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obrázok 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F756E0-F695-469E-86E3-2D5D8AA47008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="6947" t="13644" r="55999" b="23934"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16870927" y="7546960"/>
+          <a:ext cx="3755983" cy="3026067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596898</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>137582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Obrázok 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB11AB2-7E57-4C7D-944C-CE7BD6F80C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="18647" t="30064" r="34851" b="17536"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16598898" y="11366500"/>
+          <a:ext cx="8557685" cy="4593167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -721,398 +876,589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F37D44-5131-4963-AA25-88232FE085D7}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="43.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" style="4" customWidth="1"/>
     <col min="5" max="5" width="38.54296875" style="3" customWidth="1"/>
     <col min="6" max="6" width="43.36328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="44" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.453125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="125.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="125.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="125.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="12"/>
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
+      <c r="F8" s="12"/>
+      <c r="H8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="K8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="K11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="8" t="s">
+      <c r="H12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="K12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
+      <c r="H13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="K13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="8" t="s">
+      <c r="H14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="K14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="8" t="s">
+      <c r="H15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="K15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B60" s="8"/>
-      <c r="C60" s="9"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B62" s="8"/>
-      <c r="C62" s="9"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
+      <c r="C16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="K32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="K33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="K34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="K61" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L61" s="9"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="K62" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="9"/>
+      <c r="C70" s="6"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="9"/>
+      <c r="C71" s="6"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B73" s="13"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="7">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
